--- a/tldemo/doc/费用单.xlsx
+++ b/tldemo/doc/费用单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>荒料编号</t>
   </si>
@@ -49,9 +49,6 @@
     <t>出材</t>
   </si>
   <si>
-    <t>荒料上网</t>
-  </si>
-  <si>
     <t>加工需求</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>3.0CM</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>亚光</t>
@@ -104,12 +98,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -255,7 +249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -290,7 +283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,14 +458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -486,11 +478,11 @@
     <col min="9" max="9" width="11.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.125" style="4" customWidth="1"/>
     <col min="11" max="11" width="10.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.375" customWidth="1"/>
-    <col min="17" max="17" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -525,10 +517,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -545,25 +537,22 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>42917</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="3">
         <v>120.627</v>
@@ -575,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="4">
         <v>10.82</v>
@@ -584,27 +573,24 @@
         <v>11.148521256931607</v>
       </c>
       <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
+      <c r="P2">
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="4">
+      <c r="R2" s="4">
         <v>10.82</v>
       </c>
     </row>
